--- a/자료실/css일람.xlsx
+++ b/자료실/css일람.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>CSS 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>layout (상속이 안됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-align</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left(왼쪽), right(오른쪽), 
+center(중앙), justify(영역에 꽉차게)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,10 +201,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:O8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.25" x14ac:dyDescent="0.3"/>
@@ -515,357 +527,363 @@
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="P3:U3"/>
@@ -882,24 +900,22 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:U14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/자료실/css일람.xlsx
+++ b/자료실/css일람.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CSS 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   <si>
     <t>left(왼쪽), right(오른쪽), 
 center(중앙), justify(영역에 꽉차게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1px solid #f00 (크기,형태,색상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,10 +209,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -512,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.25" x14ac:dyDescent="0.3"/>
@@ -527,350 +535,372 @@
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L4:O4"/>
@@ -886,36 +916,18 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="L9:O9"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:U14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/자료실/css일람.xlsx
+++ b/자료실/css일람.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CSS 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>1px solid #f00 (크기,형태,색상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left, right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-box(content-box)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,13 +221,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +536,7 @@
   <dimension ref="B1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:U9"/>
+      <selection activeCell="P10" sqref="P10:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.25" x14ac:dyDescent="0.3"/>
@@ -535,388 +550,355 @@
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="2:21" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L9:O9"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="L2:U2"/>
     <mergeCell ref="B3:E3"/>
@@ -928,6 +910,45 @@
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:U14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
